--- a/Code/Results/Cases/Case_4_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9938731298245642</v>
+        <v>1.027695581954037</v>
       </c>
       <c r="D2">
-        <v>1.012074121166214</v>
+        <v>1.030082177297474</v>
       </c>
       <c r="E2">
-        <v>1.008972618146367</v>
+        <v>1.040823199875672</v>
       </c>
       <c r="F2">
-        <v>1.010673313315343</v>
+        <v>1.047573600140512</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039728115840493</v>
+        <v>1.029505176095935</v>
       </c>
       <c r="J2">
-        <v>1.016238651675271</v>
+        <v>1.032852024241253</v>
       </c>
       <c r="K2">
-        <v>1.023367768590621</v>
+        <v>1.032894220226891</v>
       </c>
       <c r="L2">
-        <v>1.020308349591988</v>
+        <v>1.043604456557567</v>
       </c>
       <c r="M2">
-        <v>1.021985927938476</v>
+        <v>1.050335859101388</v>
       </c>
       <c r="N2">
-        <v>1.009237807096402</v>
+        <v>1.01494183392994</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9983761713012165</v>
+        <v>1.028650610735627</v>
       </c>
       <c r="D3">
-        <v>1.015149072094256</v>
+        <v>1.030746753482891</v>
       </c>
       <c r="E3">
-        <v>1.013272865565366</v>
+        <v>1.04179940450206</v>
       </c>
       <c r="F3">
-        <v>1.015550086129216</v>
+        <v>1.048693428204322</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040557051979251</v>
+        <v>1.029615614210677</v>
       </c>
       <c r="J3">
-        <v>1.018911201622514</v>
+        <v>1.033447318807099</v>
       </c>
       <c r="K3">
-        <v>1.025591718710013</v>
+        <v>1.033367463180291</v>
       </c>
       <c r="L3">
-        <v>1.023738688300175</v>
+        <v>1.044390727685705</v>
       </c>
       <c r="M3">
-        <v>1.025987792981518</v>
+        <v>1.051266760406308</v>
       </c>
       <c r="N3">
-        <v>1.010145681294458</v>
+        <v>1.015141772147094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001230459077455</v>
+        <v>1.029268972686818</v>
       </c>
       <c r="D4">
-        <v>1.017099912530669</v>
+        <v>1.031176825105245</v>
       </c>
       <c r="E4">
-        <v>1.016004235557173</v>
+        <v>1.042431892356023</v>
       </c>
       <c r="F4">
-        <v>1.018648207932995</v>
+        <v>1.049419154658682</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041071265541342</v>
+        <v>1.02968570376308</v>
       </c>
       <c r="J4">
-        <v>1.020602741872052</v>
+        <v>1.033832312183432</v>
       </c>
       <c r="K4">
-        <v>1.02699624602501</v>
+        <v>1.033673048623762</v>
       </c>
       <c r="L4">
-        <v>1.025913265901635</v>
+        <v>1.04489969954149</v>
       </c>
       <c r="M4">
-        <v>1.028526657096555</v>
+        <v>1.051869650735621</v>
       </c>
       <c r="N4">
-        <v>1.010719981969631</v>
+        <v>1.015271003186126</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00241667425161</v>
+        <v>1.029529025784786</v>
       </c>
       <c r="D5">
-        <v>1.017911020205514</v>
+        <v>1.031357637021648</v>
       </c>
       <c r="E5">
-        <v>1.017140691104792</v>
+        <v>1.042697985186934</v>
       </c>
       <c r="F5">
-        <v>1.019937416501195</v>
+        <v>1.049724518095813</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041282232570374</v>
+        <v>1.029714840631138</v>
       </c>
       <c r="J5">
-        <v>1.021305103176716</v>
+        <v>1.033994114277601</v>
       </c>
       <c r="K5">
-        <v>1.027578672042443</v>
+        <v>1.033801363975613</v>
       </c>
       <c r="L5">
-        <v>1.026817026009794</v>
+        <v>1.045113718821274</v>
       </c>
       <c r="M5">
-        <v>1.029582304130609</v>
+        <v>1.052123233117728</v>
       </c>
       <c r="N5">
-        <v>1.010958361771109</v>
+        <v>1.015325297514849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002615054437325</v>
+        <v>1.029572695320482</v>
       </c>
       <c r="D6">
-        <v>1.018046687293765</v>
+        <v>1.031387996675242</v>
       </c>
       <c r="E6">
-        <v>1.017330826688919</v>
+        <v>1.042742674748123</v>
       </c>
       <c r="F6">
-        <v>1.020153118371836</v>
+        <v>1.049775805656082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041317352185183</v>
+        <v>1.029719713545466</v>
       </c>
       <c r="J6">
-        <v>1.021422526846288</v>
+        <v>1.034021278658656</v>
       </c>
       <c r="K6">
-        <v>1.027675998990395</v>
+        <v>1.033822899703392</v>
       </c>
       <c r="L6">
-        <v>1.026968169692178</v>
+        <v>1.045149656362579</v>
       </c>
       <c r="M6">
-        <v>1.02975887827892</v>
+        <v>1.052165818157196</v>
       </c>
       <c r="N6">
-        <v>1.010998210189724</v>
+        <v>1.015334411745021</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001246362621973</v>
+        <v>1.029272447161601</v>
       </c>
       <c r="D7">
-        <v>1.017110785697817</v>
+        <v>1.031179241086028</v>
       </c>
       <c r="E7">
-        <v>1.016019466779648</v>
+        <v>1.042435447136653</v>
       </c>
       <c r="F7">
-        <v>1.018665485764755</v>
+        <v>1.04942323388763</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0410741048323</v>
+        <v>1.029686094383828</v>
       </c>
       <c r="J7">
-        <v>1.020612160924135</v>
+        <v>1.033834474384896</v>
       </c>
       <c r="K7">
-        <v>1.027004059719063</v>
+        <v>1.033674763781174</v>
       </c>
       <c r="L7">
-        <v>1.025925382515988</v>
+        <v>1.044902559091909</v>
       </c>
       <c r="M7">
-        <v>1.028540808095815</v>
+        <v>1.051873038616636</v>
       </c>
       <c r="N7">
-        <v>1.010723179101007</v>
+        <v>1.015271728805173</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9954075867158354</v>
+        <v>1.02801825630115</v>
       </c>
       <c r="D8">
-        <v>1.013121532340895</v>
+        <v>1.030306763544401</v>
       </c>
       <c r="E8">
-        <v>1.010436775260908</v>
+        <v>1.04115294282484</v>
       </c>
       <c r="F8">
-        <v>1.012333662648401</v>
+        <v>1.04795181832762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040012908271988</v>
+        <v>1.029542782814695</v>
       </c>
       <c r="J8">
-        <v>1.017149849034881</v>
+        <v>1.03305324819886</v>
       </c>
       <c r="K8">
-        <v>1.024126649820871</v>
+        <v>1.033054285716609</v>
       </c>
       <c r="L8">
-        <v>1.021477205558892</v>
+        <v>1.043870138280315</v>
       </c>
       <c r="M8">
-        <v>1.023349118699263</v>
+        <v>1.050650350325105</v>
       </c>
       <c r="N8">
-        <v>1.009547408728475</v>
+        <v>1.015009433270415</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9846389455582548</v>
+        <v>1.025811263867779</v>
       </c>
       <c r="D9">
-        <v>1.005781182489061</v>
+        <v>1.028769759212278</v>
       </c>
       <c r="E9">
-        <v>1.000186493671422</v>
+        <v>1.038899314006773</v>
       </c>
       <c r="F9">
-        <v>1.000711326726767</v>
+        <v>1.045367629419752</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037968532045393</v>
+        <v>1.029279768647451</v>
       </c>
       <c r="J9">
-        <v>1.010746052242899</v>
+        <v>1.031675114075158</v>
       </c>
       <c r="K9">
-        <v>1.018781155254677</v>
+        <v>1.031956104775161</v>
       </c>
       <c r="L9">
-        <v>1.013276545870305</v>
+        <v>1.042052462766449</v>
       </c>
       <c r="M9">
-        <v>1.013792873683727</v>
+        <v>1.048499948575118</v>
       </c>
       <c r="N9">
-        <v>1.007370370720825</v>
+        <v>1.0145461588094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9771007213830799</v>
+        <v>1.024342027679922</v>
       </c>
       <c r="D10">
-        <v>1.000659094233758</v>
+        <v>1.027745443541265</v>
       </c>
       <c r="E10">
-        <v>0.9930442645347333</v>
+        <v>1.037401190001204</v>
       </c>
       <c r="F10">
-        <v>0.9926138293639665</v>
+        <v>1.043650685244589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036481371970105</v>
+        <v>1.029097407923331</v>
       </c>
       <c r="J10">
-        <v>1.006253289843532</v>
+        <v>1.030755384296514</v>
       </c>
       <c r="K10">
-        <v>1.015016458718857</v>
+        <v>1.031220796263795</v>
       </c>
       <c r="L10">
-        <v>1.007540252979785</v>
+        <v>1.040841789747584</v>
       </c>
       <c r="M10">
-        <v>1.007117736406584</v>
+        <v>1.047069169693483</v>
       </c>
       <c r="N10">
-        <v>1.005841688018295</v>
+        <v>1.014236604229287</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9737425543277209</v>
+        <v>1.023706336294948</v>
       </c>
       <c r="D11">
-        <v>0.9983822379188187</v>
+        <v>1.027302003388417</v>
       </c>
       <c r="E11">
-        <v>0.9898708375526816</v>
+        <v>1.036753515524648</v>
       </c>
       <c r="F11">
-        <v>0.9890157682809293</v>
+        <v>1.042908625301583</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035806247643283</v>
+        <v>1.029016785109059</v>
       </c>
       <c r="J11">
-        <v>1.004249993808296</v>
+        <v>1.030356909172383</v>
       </c>
       <c r="K11">
-        <v>1.013334727485951</v>
+        <v>1.030901654232805</v>
       </c>
       <c r="L11">
-        <v>1.004986336940668</v>
+        <v>1.040317827918445</v>
       </c>
       <c r="M11">
-        <v>1.004147847219664</v>
+        <v>1.046450304974459</v>
       </c>
       <c r="N11">
-        <v>1.00515980768172</v>
+        <v>1.01410240030326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9724802317428074</v>
+        <v>1.023470287532005</v>
       </c>
       <c r="D12">
-        <v>0.9975272189784515</v>
+        <v>1.02713730554232</v>
       </c>
       <c r="E12">
-        <v>0.9886792521845524</v>
+        <v>1.036513094929485</v>
       </c>
       <c r="F12">
-        <v>0.9876646756137436</v>
+        <v>1.042633200394811</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035550635733392</v>
+        <v>1.028986589347116</v>
       </c>
       <c r="J12">
-        <v>1.003496733999018</v>
+        <v>1.030208864484796</v>
       </c>
       <c r="K12">
-        <v>1.0127019474036</v>
+        <v>1.030782999037159</v>
       </c>
       <c r="L12">
-        <v>1.004026601922829</v>
+        <v>1.040123246081136</v>
       </c>
       <c r="M12">
-        <v>1.003032079149802</v>
+        <v>1.046220532678753</v>
       </c>
       <c r="N12">
-        <v>1.004903381678697</v>
+        <v>1.014052526531361</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9727516945180337</v>
+        <v>1.023520917375348</v>
       </c>
       <c r="D13">
-        <v>0.9977110512994116</v>
+        <v>1.027172633064661</v>
       </c>
       <c r="E13">
-        <v>0.9889354437267878</v>
+        <v>1.036564658956461</v>
       </c>
       <c r="F13">
-        <v>0.9879551646803338</v>
+        <v>1.042692270495483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035605687054032</v>
+        <v>1.028993077694722</v>
       </c>
       <c r="J13">
-        <v>1.003658732222712</v>
+        <v>1.03024062206811</v>
       </c>
       <c r="K13">
-        <v>1.012838053929722</v>
+        <v>1.030808456017795</v>
       </c>
       <c r="L13">
-        <v>1.0042329801128</v>
+        <v>1.040164982682745</v>
       </c>
       <c r="M13">
-        <v>1.003271997570724</v>
+        <v>1.046269815007211</v>
       </c>
       <c r="N13">
-        <v>1.004958530749833</v>
+        <v>1.014063225726814</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9736385202594262</v>
+        <v>1.023686822890739</v>
       </c>
       <c r="D14">
-        <v>0.9983117539871541</v>
+        <v>1.027288389088195</v>
       </c>
       <c r="E14">
-        <v>0.9897726067225424</v>
+        <v>1.036733639125788</v>
       </c>
       <c r="F14">
-        <v>0.988904389594994</v>
+        <v>1.04288585432165</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035785218379869</v>
+        <v>1.029014294192001</v>
       </c>
       <c r="J14">
-        <v>1.004187918404321</v>
+        <v>1.030344672427384</v>
       </c>
       <c r="K14">
-        <v>1.013282589299152</v>
+        <v>1.030891848429837</v>
       </c>
       <c r="L14">
-        <v>1.004907234762116</v>
+        <v>1.040301742884264</v>
       </c>
       <c r="M14">
-        <v>1.004055878971755</v>
+        <v>1.046431309848059</v>
       </c>
       <c r="N14">
-        <v>1.005138676484101</v>
+        <v>1.014098278218962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9741829164101211</v>
+        <v>1.023789052752201</v>
       </c>
       <c r="D15">
-        <v>0.9986806217797369</v>
+        <v>1.02735971229549</v>
       </c>
       <c r="E15">
-        <v>0.9902866883196895</v>
+        <v>1.036837773888606</v>
       </c>
       <c r="F15">
-        <v>0.9894872764951962</v>
+        <v>1.043005155445581</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035895187228124</v>
+        <v>1.029027333413439</v>
       </c>
       <c r="J15">
-        <v>1.004512741550608</v>
+        <v>1.030408776897653</v>
       </c>
       <c r="K15">
-        <v>1.013555396359615</v>
+        <v>1.030943214479289</v>
       </c>
       <c r="L15">
-        <v>1.00532117710067</v>
+        <v>1.040386010801205</v>
       </c>
       <c r="M15">
-        <v>1.004537161075424</v>
+        <v>1.046530825634378</v>
       </c>
       <c r="N15">
-        <v>1.005249248831817</v>
+        <v>1.014119871984064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9773215415759523</v>
+        <v>1.024384226955169</v>
       </c>
       <c r="D16">
-        <v>1.000808923026631</v>
+        <v>1.027774875318589</v>
       </c>
       <c r="E16">
-        <v>0.9932531139890628</v>
+        <v>1.037444195649838</v>
       </c>
       <c r="F16">
-        <v>0.9928506180661255</v>
+        <v>1.043699962621072</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036525507788829</v>
+        <v>1.029102723670346</v>
       </c>
       <c r="J16">
-        <v>1.006384984627164</v>
+        <v>1.030781825073216</v>
       </c>
       <c r="K16">
-        <v>1.015126952613493</v>
+        <v>1.03124196096836</v>
       </c>
       <c r="L16">
-        <v>1.007708224030494</v>
+        <v>1.040876569067071</v>
       </c>
       <c r="M16">
-        <v>1.007313106580531</v>
+        <v>1.047110255920652</v>
       </c>
       <c r="N16">
-        <v>1.005886509445615</v>
+        <v>1.014245507455826</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9792645753370859</v>
+        <v>1.024757697622718</v>
       </c>
       <c r="D17">
-        <v>1.002127867318973</v>
+        <v>1.028035322513187</v>
       </c>
       <c r="E17">
-        <v>0.9950917681357768</v>
+        <v>1.037824862500639</v>
       </c>
       <c r="F17">
-        <v>0.9949352162167374</v>
+        <v>1.044136168915417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036912437583997</v>
+        <v>1.029149570030892</v>
       </c>
       <c r="J17">
-        <v>1.00754358557192</v>
+        <v>1.031015768293822</v>
       </c>
       <c r="K17">
-        <v>1.016098689896004</v>
+        <v>1.031429156916086</v>
       </c>
       <c r="L17">
-        <v>1.009186407243766</v>
+        <v>1.041184355448884</v>
       </c>
       <c r="M17">
-        <v>1.009032636064036</v>
+        <v>1.047473897602463</v>
       </c>
       <c r="N17">
-        <v>1.00628080367237</v>
+        <v>1.014324271366968</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9803888962957487</v>
+        <v>1.02497558471552</v>
       </c>
       <c r="D18">
-        <v>1.002891527532301</v>
+        <v>1.028187246065703</v>
       </c>
       <c r="E18">
-        <v>0.9961564779386655</v>
+        <v>1.038046997692996</v>
       </c>
       <c r="F18">
-        <v>0.996142329070996</v>
+        <v>1.044390734566794</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037135130523531</v>
+        <v>1.029176734580522</v>
       </c>
       <c r="J18">
-        <v>1.008213823237446</v>
+        <v>1.031152201559228</v>
       </c>
       <c r="K18">
-        <v>1.016660535410652</v>
+        <v>1.031538272861098</v>
       </c>
       <c r="L18">
-        <v>1.010041887034784</v>
+        <v>1.041363907807295</v>
       </c>
       <c r="M18">
-        <v>1.010027984845961</v>
+        <v>1.047686068434913</v>
       </c>
       <c r="N18">
-        <v>1.006508874411059</v>
+        <v>1.014370197108086</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9807707549784256</v>
+        <v>1.025049886703034</v>
       </c>
       <c r="D19">
-        <v>1.003150969022718</v>
+        <v>1.028239049578131</v>
       </c>
       <c r="E19">
-        <v>0.996518222903493</v>
+        <v>1.038122756762012</v>
       </c>
       <c r="F19">
-        <v>0.9965524550744205</v>
+        <v>1.044477557567921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037210559362509</v>
+        <v>1.029185969813773</v>
       </c>
       <c r="J19">
-        <v>1.008441427868993</v>
+        <v>1.031198718048999</v>
       </c>
       <c r="K19">
-        <v>1.016851280688181</v>
+        <v>1.031575466292568</v>
       </c>
       <c r="L19">
-        <v>1.010332460468844</v>
+        <v>1.041425134870662</v>
       </c>
       <c r="M19">
-        <v>1.010366099620984</v>
+        <v>1.047758424175623</v>
       </c>
       <c r="N19">
-        <v>1.006586320242479</v>
+        <v>1.014385853890475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9790570446708479</v>
+        <v>1.024717622788564</v>
       </c>
       <c r="D20">
-        <v>1.001986945329893</v>
+        <v>1.028007378042642</v>
       </c>
       <c r="E20">
-        <v>0.9948953040222648</v>
+        <v>1.037784010339346</v>
       </c>
       <c r="F20">
-        <v>0.9947124743324154</v>
+        <v>1.044089354253717</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036871234737609</v>
+        <v>1.029144560420518</v>
       </c>
       <c r="J20">
-        <v>1.007419856333917</v>
+        <v>1.030990670656119</v>
       </c>
       <c r="K20">
-        <v>1.01599494644611</v>
+        <v>1.031409080033153</v>
       </c>
       <c r="L20">
-        <v>1.009028511195698</v>
+        <v>1.041151330212333</v>
       </c>
       <c r="M20">
-        <v>1.008848940090045</v>
+        <v>1.047434875584943</v>
       </c>
       <c r="N20">
-        <v>1.006238698685697</v>
+        <v>1.014315822388818</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9733777917365151</v>
+        <v>1.02363796576773</v>
       </c>
       <c r="D21">
-        <v>0.9981351222013705</v>
+        <v>1.027254301384515</v>
       </c>
       <c r="E21">
-        <v>0.9895264431771075</v>
+        <v>1.036683874404787</v>
       </c>
       <c r="F21">
-        <v>0.9886252767956029</v>
+        <v>1.042828842929846</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03573248582421</v>
+        <v>1.029008053328472</v>
       </c>
       <c r="J21">
-        <v>1.004032342506959</v>
+        <v>1.03031403310332</v>
       </c>
       <c r="K21">
-        <v>1.013151911606109</v>
+        <v>1.030867294517998</v>
       </c>
       <c r="L21">
-        <v>1.004708994690324</v>
+        <v>1.040261469278354</v>
       </c>
       <c r="M21">
-        <v>1.003825399434766</v>
+        <v>1.046383750832176</v>
       </c>
       <c r="N21">
-        <v>1.0050857161221</v>
+        <v>1.014087956806498</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9697200754164178</v>
+        <v>1.022959578618477</v>
       </c>
       <c r="D22">
-        <v>0.9956593228934677</v>
+        <v>1.026780902907285</v>
       </c>
       <c r="E22">
-        <v>0.9860761967400781</v>
+        <v>1.035993069832127</v>
       </c>
       <c r="F22">
-        <v>0.984713018774087</v>
+        <v>1.042037520093114</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034988416285519</v>
+        <v>1.0289207863034</v>
       </c>
       <c r="J22">
-        <v>1.001849313868136</v>
+        <v>1.029888411982076</v>
       </c>
       <c r="K22">
-        <v>1.01131726268088</v>
+        <v>1.03052600698418</v>
       </c>
       <c r="L22">
-        <v>1.001928626948453</v>
+        <v>1.039702215470702</v>
       </c>
       <c r="M22">
-        <v>1.000593520796742</v>
+        <v>1.045723455228378</v>
       </c>
       <c r="N22">
-        <v>1.004342511392126</v>
+        <v>1.013944547307774</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9716676303113796</v>
+        <v>1.023319162957098</v>
       </c>
       <c r="D23">
-        <v>0.9969770634075219</v>
+        <v>1.027031851380886</v>
       </c>
       <c r="E23">
-        <v>0.9879125569837298</v>
+        <v>1.036359193334168</v>
       </c>
       <c r="F23">
-        <v>0.9867953276702458</v>
+        <v>1.042456900331826</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035385579984932</v>
+        <v>1.028967184511526</v>
       </c>
       <c r="J23">
-        <v>1.003011776025803</v>
+        <v>1.030114059786251</v>
       </c>
       <c r="K23">
-        <v>1.012294437903559</v>
+        <v>1.030706990869219</v>
       </c>
       <c r="L23">
-        <v>1.003408869333819</v>
+        <v>1.039998663783694</v>
       </c>
       <c r="M23">
-        <v>1.002313994089077</v>
+        <v>1.046073434441112</v>
       </c>
       <c r="N23">
-        <v>1.004738283127596</v>
+        <v>1.014020584698052</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9791508466537101</v>
+        <v>1.024735730732877</v>
       </c>
       <c r="D24">
-        <v>1.002050639363317</v>
+        <v>1.028020004917994</v>
       </c>
       <c r="E24">
-        <v>0.9949841015855602</v>
+        <v>1.037802469367765</v>
       </c>
       <c r="F24">
-        <v>0.994813148930632</v>
+        <v>1.044110507370482</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036889861779431</v>
+        <v>1.029146824542651</v>
       </c>
       <c r="J24">
-        <v>1.007475781383684</v>
+        <v>1.031002011265847</v>
       </c>
       <c r="K24">
-        <v>1.01604183892384</v>
+        <v>1.031418152135756</v>
       </c>
       <c r="L24">
-        <v>1.009099878346883</v>
+        <v>1.041166252815574</v>
       </c>
       <c r="M24">
-        <v>1.008931967903969</v>
+        <v>1.047452507754781</v>
       </c>
       <c r="N24">
-        <v>1.006257730022138</v>
+        <v>1.014319640167559</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9874833771390676</v>
+        <v>1.02638145851282</v>
       </c>
       <c r="D25">
-        <v>1.007717606127883</v>
+        <v>1.029167054890986</v>
       </c>
       <c r="E25">
-        <v>1.002888443664323</v>
+        <v>1.03948117800152</v>
       </c>
       <c r="F25">
-        <v>1.003774700099401</v>
+        <v>1.046034676599259</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03851841033542</v>
+        <v>1.029349003185317</v>
       </c>
       <c r="J25">
-        <v>1.012439444770993</v>
+        <v>1.032031569631497</v>
       </c>
       <c r="K25">
-        <v>1.020197286005835</v>
+        <v>1.032240576589267</v>
       </c>
       <c r="L25">
-        <v>1.015442085138017</v>
+        <v>1.042522183152207</v>
       </c>
       <c r="M25">
-        <v>1.016314699961786</v>
+        <v>1.04905538480927</v>
       </c>
       <c r="N25">
-        <v>1.00794630504852</v>
+        <v>1.014666051977376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_247/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_247/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027695581954037</v>
+        <v>0.9938731298245639</v>
       </c>
       <c r="D2">
-        <v>1.030082177297474</v>
+        <v>1.012074121166214</v>
       </c>
       <c r="E2">
-        <v>1.040823199875672</v>
+        <v>1.008972618146366</v>
       </c>
       <c r="F2">
-        <v>1.047573600140512</v>
+        <v>1.010673313315342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029505176095935</v>
+        <v>1.039728115840493</v>
       </c>
       <c r="J2">
-        <v>1.032852024241253</v>
+        <v>1.01623865167527</v>
       </c>
       <c r="K2">
-        <v>1.032894220226891</v>
+        <v>1.023367768590621</v>
       </c>
       <c r="L2">
-        <v>1.043604456557567</v>
+        <v>1.020308349591988</v>
       </c>
       <c r="M2">
-        <v>1.050335859101388</v>
+        <v>1.021985927938476</v>
       </c>
       <c r="N2">
-        <v>1.01494183392994</v>
+        <v>1.009237807096402</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028650610735627</v>
+        <v>0.9983761713012173</v>
       </c>
       <c r="D3">
-        <v>1.030746753482891</v>
+        <v>1.015149072094257</v>
       </c>
       <c r="E3">
-        <v>1.04179940450206</v>
+        <v>1.013272865565367</v>
       </c>
       <c r="F3">
-        <v>1.048693428204322</v>
+        <v>1.015550086129217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029615614210677</v>
+        <v>1.040557051979251</v>
       </c>
       <c r="J3">
-        <v>1.033447318807099</v>
+        <v>1.018911201622515</v>
       </c>
       <c r="K3">
-        <v>1.033367463180291</v>
+        <v>1.025591718710013</v>
       </c>
       <c r="L3">
-        <v>1.044390727685705</v>
+        <v>1.023738688300176</v>
       </c>
       <c r="M3">
-        <v>1.051266760406308</v>
+        <v>1.025987792981519</v>
       </c>
       <c r="N3">
-        <v>1.015141772147094</v>
+        <v>1.010145681294458</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029268972686818</v>
+        <v>1.001230459077455</v>
       </c>
       <c r="D4">
-        <v>1.031176825105245</v>
+        <v>1.01709991253067</v>
       </c>
       <c r="E4">
-        <v>1.042431892356023</v>
+        <v>1.016004235557174</v>
       </c>
       <c r="F4">
-        <v>1.049419154658682</v>
+        <v>1.018648207932995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02968570376308</v>
+        <v>1.041071265541342</v>
       </c>
       <c r="J4">
-        <v>1.033832312183432</v>
+        <v>1.020602741872053</v>
       </c>
       <c r="K4">
-        <v>1.033673048623762</v>
+        <v>1.02699624602501</v>
       </c>
       <c r="L4">
-        <v>1.04489969954149</v>
+        <v>1.025913265901636</v>
       </c>
       <c r="M4">
-        <v>1.051869650735621</v>
+        <v>1.028526657096556</v>
       </c>
       <c r="N4">
-        <v>1.015271003186126</v>
+        <v>1.010719981969632</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029529025784786</v>
+        <v>1.002416674251609</v>
       </c>
       <c r="D5">
-        <v>1.031357637021648</v>
+        <v>1.017911020205513</v>
       </c>
       <c r="E5">
-        <v>1.042697985186934</v>
+        <v>1.017140691104791</v>
       </c>
       <c r="F5">
-        <v>1.049724518095813</v>
+        <v>1.019937416501193</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029714840631138</v>
+        <v>1.041282232570373</v>
       </c>
       <c r="J5">
-        <v>1.033994114277601</v>
+        <v>1.021305103176714</v>
       </c>
       <c r="K5">
-        <v>1.033801363975613</v>
+        <v>1.027578672042442</v>
       </c>
       <c r="L5">
-        <v>1.045113718821274</v>
+        <v>1.026817026009792</v>
       </c>
       <c r="M5">
-        <v>1.052123233117728</v>
+        <v>1.029582304130607</v>
       </c>
       <c r="N5">
-        <v>1.015325297514849</v>
+        <v>1.010958361771108</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029572695320482</v>
+        <v>1.002615054437325</v>
       </c>
       <c r="D6">
-        <v>1.031387996675242</v>
+        <v>1.018046687293765</v>
       </c>
       <c r="E6">
-        <v>1.042742674748123</v>
+        <v>1.017330826688919</v>
       </c>
       <c r="F6">
-        <v>1.049775805656082</v>
+        <v>1.020153118371836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029719713545466</v>
+        <v>1.041317352185183</v>
       </c>
       <c r="J6">
-        <v>1.034021278658656</v>
+        <v>1.021422526846288</v>
       </c>
       <c r="K6">
-        <v>1.033822899703392</v>
+        <v>1.027675998990395</v>
       </c>
       <c r="L6">
-        <v>1.045149656362579</v>
+        <v>1.026968169692178</v>
       </c>
       <c r="M6">
-        <v>1.052165818157196</v>
+        <v>1.02975887827892</v>
       </c>
       <c r="N6">
-        <v>1.015334411745021</v>
+        <v>1.010998210189724</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029272447161601</v>
+        <v>1.001246362621973</v>
       </c>
       <c r="D7">
-        <v>1.031179241086028</v>
+        <v>1.017110785697817</v>
       </c>
       <c r="E7">
-        <v>1.042435447136653</v>
+        <v>1.016019466779648</v>
       </c>
       <c r="F7">
-        <v>1.04942323388763</v>
+        <v>1.018665485764755</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029686094383828</v>
+        <v>1.0410741048323</v>
       </c>
       <c r="J7">
-        <v>1.033834474384896</v>
+        <v>1.020612160924136</v>
       </c>
       <c r="K7">
-        <v>1.033674763781174</v>
+        <v>1.027004059719063</v>
       </c>
       <c r="L7">
-        <v>1.044902559091909</v>
+        <v>1.025925382515988</v>
       </c>
       <c r="M7">
-        <v>1.051873038616636</v>
+        <v>1.028540808095815</v>
       </c>
       <c r="N7">
-        <v>1.015271728805173</v>
+        <v>1.010723179101007</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02801825630115</v>
+        <v>0.9954075867158348</v>
       </c>
       <c r="D8">
-        <v>1.030306763544401</v>
+        <v>1.013121532340894</v>
       </c>
       <c r="E8">
-        <v>1.04115294282484</v>
+        <v>1.010436775260908</v>
       </c>
       <c r="F8">
-        <v>1.04795181832762</v>
+        <v>1.0123336626484</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029542782814695</v>
+        <v>1.040012908271987</v>
       </c>
       <c r="J8">
-        <v>1.03305324819886</v>
+        <v>1.01714984903488</v>
       </c>
       <c r="K8">
-        <v>1.033054285716609</v>
+        <v>1.024126649820871</v>
       </c>
       <c r="L8">
-        <v>1.043870138280315</v>
+        <v>1.021477205558891</v>
       </c>
       <c r="M8">
-        <v>1.050650350325105</v>
+        <v>1.023349118699262</v>
       </c>
       <c r="N8">
-        <v>1.015009433270415</v>
+        <v>1.009547408728475</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025811263867779</v>
+        <v>0.9846389455582545</v>
       </c>
       <c r="D9">
-        <v>1.028769759212278</v>
+        <v>1.005781182489061</v>
       </c>
       <c r="E9">
-        <v>1.038899314006773</v>
+        <v>1.000186493671421</v>
       </c>
       <c r="F9">
-        <v>1.045367629419752</v>
+        <v>1.000711326726766</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029279768647451</v>
+        <v>1.037968532045393</v>
       </c>
       <c r="J9">
-        <v>1.031675114075158</v>
+        <v>1.010746052242898</v>
       </c>
       <c r="K9">
-        <v>1.031956104775161</v>
+        <v>1.018781155254677</v>
       </c>
       <c r="L9">
-        <v>1.042052462766449</v>
+        <v>1.013276545870305</v>
       </c>
       <c r="M9">
-        <v>1.048499948575118</v>
+        <v>1.013792873683727</v>
       </c>
       <c r="N9">
-        <v>1.0145461588094</v>
+        <v>1.007370370720825</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024342027679922</v>
+        <v>0.9771007213830796</v>
       </c>
       <c r="D10">
-        <v>1.027745443541265</v>
+        <v>1.000659094233757</v>
       </c>
       <c r="E10">
-        <v>1.037401190001204</v>
+        <v>0.9930442645347328</v>
       </c>
       <c r="F10">
-        <v>1.043650685244589</v>
+        <v>0.9926138293639659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029097407923331</v>
+        <v>1.036481371970104</v>
       </c>
       <c r="J10">
-        <v>1.030755384296514</v>
+        <v>1.006253289843531</v>
       </c>
       <c r="K10">
-        <v>1.031220796263795</v>
+        <v>1.015016458718856</v>
       </c>
       <c r="L10">
-        <v>1.040841789747584</v>
+        <v>1.007540252979785</v>
       </c>
       <c r="M10">
-        <v>1.047069169693483</v>
+        <v>1.007117736406583</v>
       </c>
       <c r="N10">
-        <v>1.014236604229287</v>
+        <v>1.005841688018295</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023706336294948</v>
+        <v>0.9737425543277207</v>
       </c>
       <c r="D11">
-        <v>1.027302003388417</v>
+        <v>0.9983822379188183</v>
       </c>
       <c r="E11">
-        <v>1.036753515524648</v>
+        <v>0.9898708375526812</v>
       </c>
       <c r="F11">
-        <v>1.042908625301583</v>
+        <v>0.9890157682809285</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029016785109059</v>
+        <v>1.035806247643282</v>
       </c>
       <c r="J11">
-        <v>1.030356909172383</v>
+        <v>1.004249993808296</v>
       </c>
       <c r="K11">
-        <v>1.030901654232805</v>
+        <v>1.013334727485951</v>
       </c>
       <c r="L11">
-        <v>1.040317827918445</v>
+        <v>1.004986336940668</v>
       </c>
       <c r="M11">
-        <v>1.046450304974459</v>
+        <v>1.004147847219664</v>
       </c>
       <c r="N11">
-        <v>1.01410240030326</v>
+        <v>1.00515980768172</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023470287532005</v>
+        <v>0.972480231742808</v>
       </c>
       <c r="D12">
-        <v>1.02713730554232</v>
+        <v>0.9975272189784521</v>
       </c>
       <c r="E12">
-        <v>1.036513094929485</v>
+        <v>0.9886792521845531</v>
       </c>
       <c r="F12">
-        <v>1.042633200394811</v>
+        <v>0.987664675613744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028986589347116</v>
+        <v>1.035550635733392</v>
       </c>
       <c r="J12">
-        <v>1.030208864484796</v>
+        <v>1.003496733999018</v>
       </c>
       <c r="K12">
-        <v>1.030782999037159</v>
+        <v>1.012701947403601</v>
       </c>
       <c r="L12">
-        <v>1.040123246081136</v>
+        <v>1.004026601922829</v>
       </c>
       <c r="M12">
-        <v>1.046220532678753</v>
+        <v>1.003032079149802</v>
       </c>
       <c r="N12">
-        <v>1.014052526531361</v>
+        <v>1.004903381678698</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023520917375348</v>
+        <v>0.972751694518034</v>
       </c>
       <c r="D13">
-        <v>1.027172633064661</v>
+        <v>0.997711051299412</v>
       </c>
       <c r="E13">
-        <v>1.036564658956461</v>
+        <v>0.9889354437267879</v>
       </c>
       <c r="F13">
-        <v>1.042692270495483</v>
+        <v>0.9879551646803341</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028993077694722</v>
+        <v>1.035605687054032</v>
       </c>
       <c r="J13">
-        <v>1.03024062206811</v>
+        <v>1.003658732222712</v>
       </c>
       <c r="K13">
-        <v>1.030808456017795</v>
+        <v>1.012838053929723</v>
       </c>
       <c r="L13">
-        <v>1.040164982682745</v>
+        <v>1.004232980112801</v>
       </c>
       <c r="M13">
-        <v>1.046269815007211</v>
+        <v>1.003271997570724</v>
       </c>
       <c r="N13">
-        <v>1.014063225726814</v>
+        <v>1.004958530749833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023686822890739</v>
+        <v>0.9736385202594268</v>
       </c>
       <c r="D14">
-        <v>1.027288389088195</v>
+        <v>0.9983117539871549</v>
       </c>
       <c r="E14">
-        <v>1.036733639125788</v>
+        <v>0.9897726067225431</v>
       </c>
       <c r="F14">
-        <v>1.04288585432165</v>
+        <v>0.9889043895949947</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029014294192001</v>
+        <v>1.035785218379869</v>
       </c>
       <c r="J14">
-        <v>1.030344672427384</v>
+        <v>1.004187918404322</v>
       </c>
       <c r="K14">
-        <v>1.030891848429837</v>
+        <v>1.013282589299153</v>
       </c>
       <c r="L14">
-        <v>1.040301742884264</v>
+        <v>1.004907234762117</v>
       </c>
       <c r="M14">
-        <v>1.046431309848059</v>
+        <v>1.004055878971756</v>
       </c>
       <c r="N14">
-        <v>1.014098278218962</v>
+        <v>1.005138676484101</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023789052752201</v>
+        <v>0.9741829164101213</v>
       </c>
       <c r="D15">
-        <v>1.02735971229549</v>
+        <v>0.9986806217797369</v>
       </c>
       <c r="E15">
-        <v>1.036837773888606</v>
+        <v>0.9902866883196895</v>
       </c>
       <c r="F15">
-        <v>1.043005155445581</v>
+        <v>0.9894872764951963</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029027333413439</v>
+        <v>1.035895187228124</v>
       </c>
       <c r="J15">
-        <v>1.030408776897653</v>
+        <v>1.004512741550608</v>
       </c>
       <c r="K15">
-        <v>1.030943214479289</v>
+        <v>1.013555396359615</v>
       </c>
       <c r="L15">
-        <v>1.040386010801205</v>
+        <v>1.00532117710067</v>
       </c>
       <c r="M15">
-        <v>1.046530825634378</v>
+        <v>1.004537161075424</v>
       </c>
       <c r="N15">
-        <v>1.014119871984064</v>
+        <v>1.005249248831817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024384226955169</v>
+        <v>0.9773215415759522</v>
       </c>
       <c r="D16">
-        <v>1.027774875318589</v>
+        <v>1.000808923026631</v>
       </c>
       <c r="E16">
-        <v>1.037444195649838</v>
+        <v>0.9932531139890625</v>
       </c>
       <c r="F16">
-        <v>1.043699962621072</v>
+        <v>0.9928506180661252</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029102723670346</v>
+        <v>1.036525507788829</v>
       </c>
       <c r="J16">
-        <v>1.030781825073216</v>
+        <v>1.006384984627164</v>
       </c>
       <c r="K16">
-        <v>1.03124196096836</v>
+        <v>1.015126952613493</v>
       </c>
       <c r="L16">
-        <v>1.040876569067071</v>
+        <v>1.007708224030494</v>
       </c>
       <c r="M16">
-        <v>1.047110255920652</v>
+        <v>1.007313106580531</v>
       </c>
       <c r="N16">
-        <v>1.014245507455826</v>
+        <v>1.005886509445615</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024757697622718</v>
+        <v>0.9792645753370859</v>
       </c>
       <c r="D17">
-        <v>1.028035322513187</v>
+        <v>1.002127867318973</v>
       </c>
       <c r="E17">
-        <v>1.037824862500639</v>
+        <v>0.9950917681357767</v>
       </c>
       <c r="F17">
-        <v>1.044136168915417</v>
+        <v>0.9949352162167375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029149570030892</v>
+        <v>1.036912437583997</v>
       </c>
       <c r="J17">
-        <v>1.031015768293822</v>
+        <v>1.00754358557192</v>
       </c>
       <c r="K17">
-        <v>1.031429156916086</v>
+        <v>1.016098689896004</v>
       </c>
       <c r="L17">
-        <v>1.041184355448884</v>
+        <v>1.009186407243766</v>
       </c>
       <c r="M17">
-        <v>1.047473897602463</v>
+        <v>1.009032636064037</v>
       </c>
       <c r="N17">
-        <v>1.014324271366968</v>
+        <v>1.00628080367237</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02497558471552</v>
+        <v>0.9803888962957489</v>
       </c>
       <c r="D18">
-        <v>1.028187246065703</v>
+        <v>1.0028915275323</v>
       </c>
       <c r="E18">
-        <v>1.038046997692996</v>
+        <v>0.9961564779386654</v>
       </c>
       <c r="F18">
-        <v>1.044390734566794</v>
+        <v>0.996142329070996</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029176734580522</v>
+        <v>1.037135130523531</v>
       </c>
       <c r="J18">
-        <v>1.031152201559228</v>
+        <v>1.008213823237446</v>
       </c>
       <c r="K18">
-        <v>1.031538272861098</v>
+        <v>1.016660535410652</v>
       </c>
       <c r="L18">
-        <v>1.041363907807295</v>
+        <v>1.010041887034783</v>
       </c>
       <c r="M18">
-        <v>1.047686068434913</v>
+        <v>1.010027984845961</v>
       </c>
       <c r="N18">
-        <v>1.014370197108086</v>
+        <v>1.006508874411059</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025049886703034</v>
+        <v>0.9807707549784256</v>
       </c>
       <c r="D19">
-        <v>1.028239049578131</v>
+        <v>1.003150969022719</v>
       </c>
       <c r="E19">
-        <v>1.038122756762012</v>
+        <v>0.9965182229034933</v>
       </c>
       <c r="F19">
-        <v>1.044477557567921</v>
+        <v>0.9965524550744209</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029185969813773</v>
+        <v>1.03721055936251</v>
       </c>
       <c r="J19">
-        <v>1.031198718048999</v>
+        <v>1.008441427868993</v>
       </c>
       <c r="K19">
-        <v>1.031575466292568</v>
+        <v>1.016851280688181</v>
       </c>
       <c r="L19">
-        <v>1.041425134870662</v>
+        <v>1.010332460468844</v>
       </c>
       <c r="M19">
-        <v>1.047758424175623</v>
+        <v>1.010366099620985</v>
       </c>
       <c r="N19">
-        <v>1.014385853890475</v>
+        <v>1.006586320242479</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024717622788564</v>
+        <v>0.9790570446708473</v>
       </c>
       <c r="D20">
-        <v>1.028007378042642</v>
+        <v>1.001986945329893</v>
       </c>
       <c r="E20">
-        <v>1.037784010339346</v>
+        <v>0.994895304022264</v>
       </c>
       <c r="F20">
-        <v>1.044089354253717</v>
+        <v>0.9947124743324147</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029144560420518</v>
+        <v>1.036871234737609</v>
       </c>
       <c r="J20">
-        <v>1.030990670656119</v>
+        <v>1.007419856333917</v>
       </c>
       <c r="K20">
-        <v>1.031409080033153</v>
+        <v>1.015994946446109</v>
       </c>
       <c r="L20">
-        <v>1.041151330212333</v>
+        <v>1.009028511195698</v>
       </c>
       <c r="M20">
-        <v>1.047434875584943</v>
+        <v>1.008848940090044</v>
       </c>
       <c r="N20">
-        <v>1.014315822388818</v>
+        <v>1.006238698685697</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02363796576773</v>
+        <v>0.9733777917365153</v>
       </c>
       <c r="D21">
-        <v>1.027254301384515</v>
+        <v>0.9981351222013705</v>
       </c>
       <c r="E21">
-        <v>1.036683874404787</v>
+        <v>0.989526443177108</v>
       </c>
       <c r="F21">
-        <v>1.042828842929846</v>
+        <v>0.9886252767956034</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029008053328472</v>
+        <v>1.03573248582421</v>
       </c>
       <c r="J21">
-        <v>1.03031403310332</v>
+        <v>1.004032342506959</v>
       </c>
       <c r="K21">
-        <v>1.030867294517998</v>
+        <v>1.013151911606109</v>
       </c>
       <c r="L21">
-        <v>1.040261469278354</v>
+        <v>1.004708994690324</v>
       </c>
       <c r="M21">
-        <v>1.046383750832176</v>
+        <v>1.003825399434766</v>
       </c>
       <c r="N21">
-        <v>1.014087956806498</v>
+        <v>1.0050857161221</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022959578618477</v>
+        <v>0.9697200754164162</v>
       </c>
       <c r="D22">
-        <v>1.026780902907285</v>
+        <v>0.9956593228934668</v>
       </c>
       <c r="E22">
-        <v>1.035993069832127</v>
+        <v>0.9860761967400765</v>
       </c>
       <c r="F22">
-        <v>1.042037520093114</v>
+        <v>0.9847130187740857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0289207863034</v>
+        <v>1.034988416285519</v>
       </c>
       <c r="J22">
-        <v>1.029888411982076</v>
+        <v>1.001849313868135</v>
       </c>
       <c r="K22">
-        <v>1.03052600698418</v>
+        <v>1.011317262680879</v>
       </c>
       <c r="L22">
-        <v>1.039702215470702</v>
+        <v>1.001928626948451</v>
       </c>
       <c r="M22">
-        <v>1.045723455228378</v>
+        <v>1.000593520796741</v>
       </c>
       <c r="N22">
-        <v>1.013944547307774</v>
+        <v>1.004342511392126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023319162957098</v>
+        <v>0.9716676303113791</v>
       </c>
       <c r="D23">
-        <v>1.027031851380886</v>
+        <v>0.9969770634075217</v>
       </c>
       <c r="E23">
-        <v>1.036359193334168</v>
+        <v>0.9879125569837295</v>
       </c>
       <c r="F23">
-        <v>1.042456900331826</v>
+        <v>0.9867953276702454</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028967184511526</v>
+        <v>1.035385579984932</v>
       </c>
       <c r="J23">
-        <v>1.030114059786251</v>
+        <v>1.003011776025803</v>
       </c>
       <c r="K23">
-        <v>1.030706990869219</v>
+        <v>1.012294437903559</v>
       </c>
       <c r="L23">
-        <v>1.039998663783694</v>
+        <v>1.003408869333819</v>
       </c>
       <c r="M23">
-        <v>1.046073434441112</v>
+        <v>1.002313994089076</v>
       </c>
       <c r="N23">
-        <v>1.014020584698052</v>
+        <v>1.004738283127596</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024735730732877</v>
+        <v>0.9791508466537094</v>
       </c>
       <c r="D24">
-        <v>1.028020004917994</v>
+        <v>1.002050639363316</v>
       </c>
       <c r="E24">
-        <v>1.037802469367765</v>
+        <v>0.9949841015855593</v>
       </c>
       <c r="F24">
-        <v>1.044110507370482</v>
+        <v>0.9948131489306311</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029146824542651</v>
+        <v>1.036889861779431</v>
       </c>
       <c r="J24">
-        <v>1.031002011265847</v>
+        <v>1.007475781383683</v>
       </c>
       <c r="K24">
-        <v>1.031418152135756</v>
+        <v>1.01604183892384</v>
       </c>
       <c r="L24">
-        <v>1.041166252815574</v>
+        <v>1.009099878346883</v>
       </c>
       <c r="M24">
-        <v>1.047452507754781</v>
+        <v>1.008931967903968</v>
       </c>
       <c r="N24">
-        <v>1.014319640167559</v>
+        <v>1.006257730022138</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02638145851282</v>
+        <v>0.9874833771390671</v>
       </c>
       <c r="D25">
-        <v>1.029167054890986</v>
+        <v>1.007717606127882</v>
       </c>
       <c r="E25">
-        <v>1.03948117800152</v>
+        <v>1.002888443664322</v>
       </c>
       <c r="F25">
-        <v>1.046034676599259</v>
+        <v>1.0037747000994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029349003185317</v>
+        <v>1.038518410335419</v>
       </c>
       <c r="J25">
-        <v>1.032031569631497</v>
+        <v>1.012439444770992</v>
       </c>
       <c r="K25">
-        <v>1.032240576589267</v>
+        <v>1.020197286005835</v>
       </c>
       <c r="L25">
-        <v>1.042522183152207</v>
+        <v>1.015442085138017</v>
       </c>
       <c r="M25">
-        <v>1.04905538480927</v>
+        <v>1.016314699961785</v>
       </c>
       <c r="N25">
-        <v>1.014666051977376</v>
+        <v>1.00794630504852</v>
       </c>
     </row>
   </sheetData>
